--- a/Best_OFF/NP.xlsx
+++ b/Best_OFF/NP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,561 +453,1020 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021-03-04</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Еда для революции</t>
+          <t>Не моргнув глазом. Государство лоббирует сбор биометрических данных</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/4d4/758_493_2/4d4951f7dc77f9a33ab17514b75e7cd9.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/592/758_493_2/592b9233743bd5c85ba07f694d698ee0.jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-03-04</t>
+          <t>2021-03-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>«Светлана» без «Спутника». Завод второй раз за год поменял структуру управления</t>
+          <t>Осколок империи. «Мостострой №6» выставлен на продажу</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/bff/758_493_2/bff0a63050944eeb61fc030a445990c5.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/4ac/758_493_2/4ac20b6268b3c83160d868c13d772f43.jpg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-03-05</t>
+          <t>2021-03-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Анастасия Постникова: «Любовь важна. А всё остальное может гореть в аду»</t>
+          <t>«ТЕСТ» от Росимущества. Здание у Сада Сан-Галли пустят с молотка</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/432/758_493_2/43212d71ab9ea9eba5c83e94f56ef567.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/93c/758_493_2/93c471ed93aa3542ed938174e3c4289b.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021-03-05</t>
+          <t>2021-03-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Подушки, «пивной» парфюм и украшения со смыслом. Что дамы и кавалеры дарят друг другу</t>
+          <t>Абонентам нужны эффективные инструменты на прозрачных условиях, а не супермаркеты опций</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/ae1/758_493_2/ae13735a76e1d8283e485a0d3e8801c4.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/8d9/758_493_2/8d97d7a1b7703881eafe605491aa5ef1.jpg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021-03-05</t>
+          <t>2021-03-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Сергей Ёлкин о когнитивном диссонансе</t>
+          <t>Школа выживания врачей. Как частная медицина переносит турбулентность</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/e15/758_493_2/e15773da10d79bbebe049c481c3e3fd5.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/504/758_493_2/50425bb44723d013cdeb7e72418de02a.JPG</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021-03-05</t>
+          <t>2021-03-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Фото недели. Александр Петросян о Международном женском дне</t>
+          <t>Вошли во вкус. Семья Светланы Гузь откроет еще два элитных ресторана в Петербурге</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/590/758_493_2/590509154e85f21b91f13b054aec980d.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/94c/758_493_2/94c83b3091d1996a13384cda4603c852.jpg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021-03-09</t>
+          <t>2021-03-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>На финишной прямой. «Севкабель» начал массовые увольнения персонала</t>
+          <t xml:space="preserve">Сотовая связь уходит в виртуальность. Банкиры теснят традиционных сотовых операторов </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/af9/758_493_2/af993c633114a12b245a1a145d05d366.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/8cd/758_493_2/8cdd9c6258246de9d58ac7dd6b1153bb.jpg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021-03-09</t>
+          <t>2021-03-17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Время для своих. Туриндустрия разглядела в россиянах привлекательных клиентов</t>
+          <t>Пример средневекового мракобесия. Просветители о новом законе</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/992/758_493_2/99252f0adea603d211965394675278df.JPG</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/653/758_493_2/65340bfdcb8291973fcb9e2acfb893da.jpg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021-03-09</t>
+          <t>2021-03-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Супераппы: «Городок в табакерке»</t>
+          <t>Воля к разрушению</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/85c/758_493_2/85cc1957c682b473d435ba7dcfbc4ea0.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/464/758_493_2/46486223fdced45e2fcf7ebfb221c369.jpg</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021-03-09</t>
+          <t>2021-03-18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Инфанты российской политики</t>
+          <t>С грядки на стол. Что мешает фермерскому продукту попадать в рестораны</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/daa/758_493_2/daac08a6a267d0366ac74a1fc31fc76a.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/e46/758_493_2/e46d0ee653b4d2e48f0f8d316ddaf559.jpg</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021-03-10</t>
+          <t>2021-03-18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Проект на полмиллиарда рублей пошел лесом</t>
+          <t>Майские заморозки. Отельеры не верят в ранний высокий сезон</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/e3c/758_493_2/e3cb40dbeeb28c43615ab2e1ed3ad88a.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/f81/758_493_2/f81ba24ad9f89b66649ce4582065e082.jpg</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021-03-10</t>
+          <t>2021-03-18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Холодная логика. «Выборжец» отказался сажать картошку</t>
+          <t>Высоцк без газа. Но с надежной на расширение проекта «НОВАТЭКа»</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/ff0/758_493_2/ff0dd182b9b691e64a5136793bddd1d5.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/3cb/758_493_2/3cb13574a7eb537561a5365eb13db142.jpg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021-03-10</t>
+          <t>2021-03-19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Суд более не требуется. В Петербурге объявили о ликвидации Уставного суда</t>
+          <t>Михаил Чобаня: «Если в Петербурге культ шефов, то в Москве — культ еды»</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/2f9/758_493_2/2f9718d1cd2746dda7cd79de9bcdcab0.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/a61/758_493_2/a6141c5c5881886a52b89cc08b80bf93.jpg</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021-03-11</t>
+          <t>2021-03-19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>«Созвездие» без инвестора. Хильченко снова продает проект гостиницы</t>
+          <t>Карикатурист Сергей Ёлкин: «Нет объяснения, почему нос Путина стал загибаться вверх!»</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/bb0/758_493_2/bb0eba1c17487957909af555950b6038.JPG</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/41c/758_493_2/41c86caf33295aec220bdd7ff726a749.jpg</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021-03-11</t>
+          <t>2021-03-19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сети растут по весне. В Петербурге открываются новые сетевые рестораны </t>
+          <t>Евгения Васильева: «Искусство тем интересно, что оно создает новое, а не повторяет старое»</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/700/758_493_2/700b156c2f539ddd24321cfef292db89.jpg</t>
+          <t>https://newprospect.ru/upload/iblock/82b/82bcef1a39854966831c5d51fac584ea.jpg</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021-03-11</t>
+          <t>2021-03-19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>«Именно в тишине происходит произвол». Марина Литвинович о переплетении правозащиты и политики в России</t>
+          <t>Сергей Ёлкин о плодах просвещения</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/f12/758_493_2/f1293bf06c24330e36be8af4d7184873.png</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/08e/758_493_2/08e112a2343ae78a324b638599d5d7ca.jpg</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2021-03-11</t>
+          <t>2021-03-19</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ВЕРА + СЕВКА. «Севкабель Порт» объединяется с соседкой — Фабрикой им. Веры Слуцкой</t>
+          <t>Фото недели. Александр Петросян о весне, которая обязательно скоро к нам придет</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/e30/758_493_2/e3079bc1bf52ce590c36f913806a1761.JPG</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/a27/758_493_2/a27ac75b4e6ade9e9b3140ce5042bc47.jpeg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2021-03-22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Рестораны в спальных районах. Как кормят на окраинах города </t>
+          <t>Мутная субстанция. Поставщик банкротит фармкомпанию Олега Жеребцова</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/70f/758_493_2/70fb92884f9780c2f6b341ca5e565be1.JPG</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/fe3/758_493_2/fe3bd7672fa4af7e0a8fb221a1c328d9.JPG</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2021-03-22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Фото недели. Александр Петросян о новом проспекте</t>
+          <t>Сергей Попов: «У власти и просветителей нет диалога, и что с этим делать, непонятно»</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/141/758_493_2/141ff88132cea8f7f5ce6647aede6b0e.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/4df/758_493_2/4df5d280ef65b4ac5f1dca3465d08682.jpg</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2021-03-22</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>«Во власти города». Выставка Яна Антонышева</t>
+          <t>Ленобласть накормит Петербург по новым ценам</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/298/758_493_2/298076318437cd6251363af319e8a0ee.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/206/758_493_2/206bc1aef7ca6363c05c1c02a2bb7432.jpg</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2021-03-01</t>
+          <t>2021-03-05</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Гаснущий «Рассвет». Крупный производитель говядины в Ленобласти банкротит сам себя</t>
+          <t>Подушки, «пивной» парфюм и украшения со смыслом. Что дамы и кавалеры дарят друг другу</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/add/758_493_2/addd552541a3cc24df939ce5b7894a60.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/ae1/758_493_2/ae13735a76e1d8283e485a0d3e8801c4.jpg</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2021-03-01</t>
+          <t>2021-03-05</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Яков Адамов: «Качество сервиса в среднем по городу упадет катастрофически»</t>
+          <t>Сергей Ёлкин о когнитивном диссонансе</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/6c8/758_493_2/6c8d58a04a50d28c9a837ce6e777c138.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/e15/758_493_2/e15773da10d79bbebe049c481c3e3fd5.jpg</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2021-03-01</t>
+          <t>2021-03-05</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Звезданули. Минобороны взыскало с завода «Звезда» крупную сумму</t>
+          <t>Фото недели. Александр Петросян о Международном женском дне</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/iblock/666/66661100888b306713e24155e66160ef.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/590/758_493_2/590509154e85f21b91f13b054aec980d.jpg</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2021-03-09</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Суды прописали строителям отсрочку</t>
+          <t>На финишной прямой. «Севкабель» начал массовые увольнения персонала</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/3aa/758_493_2/3aac11481c588ae98955899a64e2e8bc.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/af9/758_493_2/af993c633114a12b245a1a145d05d366.jpg</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2021-03-09</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Аладушкин продает птицефабрику «Оредеж»</t>
+          <t>Время для своих. Туриндустрия разглядела в россиянах привлекательных клиентов</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/4da/758_493_2/4dad57e0f067405e4535adfe8eaad336.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/992/758_493_2/99252f0adea603d211965394675278df.JPG</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2021-03-09</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ольга Огаркова: «Десять поправок в закон ресторанного мира»</t>
+          <t>Супераппы: «Городок в табакерке»</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/1b0/758_493_2/1b085426cf845119ca2b0486b5e3575a.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/85c/758_493_2/85cc1957c682b473d435ba7dcfbc4ea0.jpg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2021-03-09</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стрельба из пушки по «Твиттеру». Зачем в России хотят ограничить рекламу иностранных айтишников </t>
+          <t>Инфанты российской политики</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/3d9/758_493_2/3d99514caa1e33a32537d2e65edc35c9.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/daa/758_493_2/daac08a6a267d0366ac74a1fc31fc76a.jpg</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2021-03-03</t>
+          <t>2021-03-10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Бургеры не прижились. Группа «Лосево» закрыла гастромаркет на Петровском</t>
+          <t>Проект на полмиллиарда рублей пошел лесом</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/100/758_493_2/1008bc48111f9b6f56c1f9bb93d18cd0.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/e3c/758_493_2/e3cb40dbeeb28c43615ab2e1ed3ad88a.jpg</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2021-03-03</t>
+          <t>2021-03-10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Катя Земцова: «Наступило невероятное время, когда заграница завидует России»</t>
+          <t>Холодная логика. «Выборжец» отказался сажать картошку</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/c9c/758_493_2/c9cfa0e4ff40f46e648082f64f8ced75.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/ff0/758_493_2/ff0dd182b9b691e64a5136793bddd1d5.jpg</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2021-03-03</t>
+          <t>2021-03-10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Уральский дебют. На рынок Ленобласти вышел застройщик из Челябинска</t>
+          <t>Суд более не требуется. В Петербурге объявили о ликвидации Уставного суда</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/041/758_493_2/041a93dc859bfe657b0e84a901303e0b.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/2f9/758_493_2/2f9718d1cd2746dda7cd79de9bcdcab0.jpg</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2021-03-03</t>
+          <t>2021-03-11</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Недвижимость «Лентехэнерго» на Васильевском купили москвичи</t>
+          <t>«Созвездие» без инвестора. Хильченко снова продает проект гостиницы</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/iblock/d01/d01bc90252cf73eef833e4689a7b2282.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/bb0/758_493_2/bb0eba1c17487957909af555950b6038.JPG</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2021-03-04</t>
+          <t>2021-03-11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>«Южный гриб» отказался расти в Ленобласти</t>
+          <t xml:space="preserve">Сети растут по весне. В Петербурге открываются новые сетевые рестораны </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://newprospect.ru/upload/resize_cache/iblock/af6/758_493_2/af6aab47cd47470d7f68f05b3b8d7e10.jpg</t>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/700/758_493_2/700b156c2f539ddd24321cfef292db89.jpg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>2021-03-11</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>«Именно в тишине происходит произвол». Марина Литвинович о переплетении правозащиты и политики в России</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/f12/758_493_2/f1293bf06c24330e36be8af4d7184873.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2021-03-11</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ВЕРА + СЕВКА. «Севкабель Порт» объединяется с соседкой — Фабрикой им. Веры Слуцкой</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/e30/758_493_2/e3079bc1bf52ce590c36f913806a1761.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2021-03-12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Рестораны в спальных районах. Как кормят на окраинах города </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/70f/758_493_2/70fb92884f9780c2f6b341ca5e565be1.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2021-03-12</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Фото недели. Александр Петросян о новом проспекте</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/141/758_493_2/141ff88132cea8f7f5ce6647aede6b0e.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2021-03-12</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>«Во власти города». Выставка Яна Антонышева</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/298/758_493_2/298076318437cd6251363af319e8a0ee.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2021-03-12</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Сергей Ёлкин о выдающихся достижениях мам российских чиновников</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/402/758_493_2/402ec193f9bedb6271e5b38708a37e4e.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ковидный тренд. Фармацевты наращивают производство лекарств и вакцин</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/601/758_493_2/601439917d498b47c0acad970c296a9f.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Георгий Богачёв: «Я три года ходил на работу в акваланге»</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/95b/758_493_2/95ba23ba697b0470fc86abc9eecbfa4e.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2021-02-26</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Захар Вальков: «Логистика будущего — эластичная и с балансом людей и машин»</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/201/758_493_2/201b71d9b957a2a87f9fcc7c37a8da99.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2021-02-26</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Сергей Миронов: «С чего вы взяли, что мы живем в новом мире?»</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/cff/758_493_2/cff8b8e640be6f83b34a1d9bdc39500c.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2021-02-26</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Сергей Елкин о погодной аномалии</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/0b2/758_493_2/0b25aa158752955a8c0ef75c2b3e552a.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2021-02-26</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Фото недели. Александр Петросян запечатлел нетипичное оживление на Зимней канавке</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/5e2/758_493_2/5e275c656592828428abc91100f44d2b.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2021-03-01</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Гаснущий «Рассвет». Крупный производитель говядины в Ленобласти банкротит сам себя</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/add/758_493_2/addd552541a3cc24df939ce5b7894a60.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2021-03-01</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Яков Адамов: «Качество сервиса в среднем по городу упадет катастрофически»</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/6c8/758_493_2/6c8d58a04a50d28c9a837ce6e777c138.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2021-03-01</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Звезданули. Минобороны взыскало с завода «Звезда» крупную сумму</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/iblock/666/66661100888b306713e24155e66160ef.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2021-03-02</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Суды прописали строителям отсрочку</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/3aa/758_493_2/3aac11481c588ae98955899a64e2e8bc.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2021-03-02</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Аладушкин продает птицефабрику «Оредеж»</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/4da/758_493_2/4dad57e0f067405e4535adfe8eaad336.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2021-03-02</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Ольга Огаркова: «Десять поправок в закон ресторанного мира»</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/1b0/758_493_2/1b085426cf845119ca2b0486b5e3575a.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2021-03-02</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Стрельба из пушки по «Твиттеру». Зачем в России хотят ограничить рекламу иностранных айтишников </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/3d9/758_493_2/3d99514caa1e33a32537d2e65edc35c9.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2021-03-03</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Бургеры не прижились. Группа «Лосево» закрыла гастромаркет на Петровском</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/100/758_493_2/1008bc48111f9b6f56c1f9bb93d18cd0.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2021-03-03</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Катя Земцова: «Наступило невероятное время, когда заграница завидует России»</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/c9c/758_493_2/c9cfa0e4ff40f46e648082f64f8ced75.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2021-03-03</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Уральский дебют. На рынок Ленобласти вышел застройщик из Челябинска</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/041/758_493_2/041a93dc859bfe657b0e84a901303e0b.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2021-03-03</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Недвижимость «Лентехэнерго» на Васильевском купили москвичи</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/iblock/d01/d01bc90252cf73eef833e4689a7b2282.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>2021-03-04</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>«Южный гриб» отказался расти в Ленобласти</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/af6/758_493_2/af6aab47cd47470d7f68f05b3b8d7e10.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2021-03-04</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>«АВТОДOM» купил 40% столичного рынка Audi, заключив сделку с ГК «АСЦ»</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>https://newprospect.ru/upload/resize_cache/iblock/2ef/758_493_2/2ef5cbdd8563d44704beb23bba746a26.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2021-03-04</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Еда для революции</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/4d4/758_493_2/4d4951f7dc77f9a33ab17514b75e7cd9.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2021-03-04</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>«Светлана» без «Спутника». Завод второй раз за год поменял структуру управления</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/bff/758_493_2/bff0a63050944eeb61fc030a445990c5.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2021-03-05</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Анастасия Постникова: «Любовь важна. А всё остальное может гореть в аду»</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://newprospect.ru/upload/resize_cache/iblock/432/758_493_2/43212d71ab9ea9eba5c83e94f56ef567.jpg</t>
         </is>
       </c>
     </row>
